--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Myl9</t>
+  </si>
+  <si>
+    <t>Cd69</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Myl9</t>
-  </si>
-  <si>
-    <t>Cd69</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.539846666666667</v>
+        <v>7.773293333333334</v>
       </c>
       <c r="H2">
-        <v>13.61954</v>
+        <v>23.31988</v>
       </c>
       <c r="I2">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="J2">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.004819666666666667</v>
+        <v>0.1271313333333333</v>
       </c>
       <c r="N2">
-        <v>0.014459</v>
+        <v>0.381394</v>
       </c>
       <c r="O2">
-        <v>4.905670228042789E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="P2">
-        <v>4.90567022804279E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="Q2">
-        <v>0.02188054765111111</v>
+        <v>0.988229145857778</v>
       </c>
       <c r="R2">
-        <v>0.19692492886</v>
+        <v>8.894062312720001</v>
       </c>
       <c r="S2">
-        <v>4.407671626355707E-06</v>
+        <v>0.0003012862544264012</v>
       </c>
       <c r="T2">
-        <v>4.407671626355708E-06</v>
+        <v>0.0003012862544264012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.539846666666667</v>
+        <v>7.773293333333334</v>
       </c>
       <c r="H3">
-        <v>13.61954</v>
+        <v>23.31988</v>
       </c>
       <c r="I3">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="J3">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.012926</v>
       </c>
       <c r="O3">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="P3">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="Q3">
-        <v>0.01956068600444444</v>
+        <v>0.03349252987555556</v>
       </c>
       <c r="R3">
-        <v>0.17604617404</v>
+        <v>0.30143276888</v>
       </c>
       <c r="S3">
-        <v>3.940352959559711E-06</v>
+        <v>1.021103143918274E-05</v>
       </c>
       <c r="T3">
-        <v>3.940352959559711E-06</v>
+        <v>1.021103143918274E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.539846666666667</v>
+        <v>7.773293333333334</v>
       </c>
       <c r="H4">
-        <v>13.61954</v>
+        <v>23.31988</v>
       </c>
       <c r="I4">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="J4">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.61914433333333</v>
+        <v>18.891577</v>
       </c>
       <c r="N4">
-        <v>49.857433</v>
+        <v>56.67473100000001</v>
       </c>
       <c r="O4">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="P4">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="Q4">
-        <v>75.44836700453556</v>
+        <v>146.8497695502534</v>
       </c>
       <c r="R4">
-        <v>679.0353030408199</v>
+        <v>1321.64792595228</v>
       </c>
       <c r="S4">
-        <v>0.01519850562259013</v>
+        <v>0.04477080767818542</v>
       </c>
       <c r="T4">
-        <v>0.01519850562259013</v>
+        <v>0.04477080767818543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.539846666666667</v>
+        <v>7.773293333333334</v>
       </c>
       <c r="H5">
-        <v>13.61954</v>
+        <v>23.31988</v>
       </c>
       <c r="I5">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="J5">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.001810333333333333</v>
+        <v>0.01396866666666667</v>
       </c>
       <c r="N5">
-        <v>0.005431</v>
+        <v>0.041906</v>
       </c>
       <c r="O5">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="P5">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="Q5">
-        <v>0.008218635748888889</v>
+        <v>0.1085825434755556</v>
       </c>
       <c r="R5">
-        <v>0.07396772173999999</v>
+        <v>0.97724289128</v>
       </c>
       <c r="S5">
-        <v>1.655582308786074E-06</v>
+        <v>3.310409124945009E-05</v>
       </c>
       <c r="T5">
-        <v>1.655582308786074E-06</v>
+        <v>3.310409124945009E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.539846666666667</v>
+        <v>7.773293333333334</v>
       </c>
       <c r="H6">
-        <v>13.61954</v>
+        <v>23.31988</v>
       </c>
       <c r="I6">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="J6">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.62995566666667</v>
+        <v>81.50486266666667</v>
       </c>
       <c r="N6">
-        <v>181.889867</v>
+        <v>244.514588</v>
       </c>
       <c r="O6">
-        <v>0.6171185457670396</v>
+        <v>0.7542226514793733</v>
       </c>
       <c r="P6">
-        <v>0.6171185457670397</v>
+        <v>0.7542226514793734</v>
       </c>
       <c r="Q6">
-        <v>275.2507021334644</v>
+        <v>633.561205601049</v>
       </c>
       <c r="R6">
-        <v>2477.25631920118</v>
+        <v>5702.05085040944</v>
       </c>
       <c r="S6">
-        <v>0.0554471820940254</v>
+        <v>0.1931569043328806</v>
       </c>
       <c r="T6">
-        <v>0.05544718209402541</v>
+        <v>0.1931569043328807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.539846666666667</v>
+        <v>7.773293333333334</v>
       </c>
       <c r="H7">
-        <v>13.61954</v>
+        <v>23.31988</v>
       </c>
       <c r="I7">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="J7">
-        <v>0.08984851042696834</v>
+        <v>0.2561006407776433</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.98681533333333</v>
+        <v>7.522875666666667</v>
       </c>
       <c r="N7">
-        <v>62.960446</v>
+        <v>22.568627</v>
       </c>
       <c r="O7">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="P7">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="Q7">
-        <v>95.27692363498221</v>
+        <v>58.47751926719556</v>
       </c>
       <c r="R7">
-        <v>857.4923127148398</v>
+        <v>526.29767340476</v>
       </c>
       <c r="S7">
-        <v>0.0191928191034581</v>
+        <v>0.01782832738946221</v>
       </c>
       <c r="T7">
-        <v>0.0191928191034581</v>
+        <v>0.01782832738946221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.254459333333333</v>
+        <v>7.254459333333334</v>
       </c>
       <c r="H8">
         <v>21.763378</v>
       </c>
       <c r="I8">
-        <v>0.1435736519118159</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="J8">
-        <v>0.143573651911816</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.004819666666666667</v>
+        <v>0.1271313333333333</v>
       </c>
       <c r="N8">
-        <v>0.014459</v>
+        <v>0.381394</v>
       </c>
       <c r="O8">
-        <v>4.905670228042789E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="P8">
-        <v>4.90567022804279E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="Q8">
-        <v>0.03496407583355556</v>
+        <v>0.9222690876591113</v>
       </c>
       <c r="R8">
-        <v>0.314676682502</v>
+        <v>8.300421788932001</v>
       </c>
       <c r="S8">
-        <v>7.04324989715174E-06</v>
+        <v>0.0002811766887859605</v>
       </c>
       <c r="T8">
-        <v>7.043249897151742E-06</v>
+        <v>0.0002811766887859605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.254459333333333</v>
+        <v>7.254459333333334</v>
       </c>
       <c r="H9">
         <v>21.763378</v>
       </c>
       <c r="I9">
-        <v>0.1435736519118159</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="J9">
-        <v>0.143573651911816</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.012926</v>
       </c>
       <c r="O9">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="P9">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="Q9">
-        <v>0.03125704711422222</v>
+        <v>0.03125704711422223</v>
       </c>
       <c r="R9">
         <v>0.281313424028</v>
       </c>
       <c r="S9">
-        <v>6.296496864968766E-06</v>
+        <v>9.529488873048146E-06</v>
       </c>
       <c r="T9">
-        <v>6.296496864968767E-06</v>
+        <v>9.529488873048146E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.254459333333333</v>
+        <v>7.254459333333334</v>
       </c>
       <c r="H10">
         <v>21.763378</v>
       </c>
       <c r="I10">
-        <v>0.1435736519118159</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="J10">
-        <v>0.143573651911816</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.61914433333333</v>
+        <v>18.891577</v>
       </c>
       <c r="N10">
-        <v>49.857433</v>
+        <v>56.67473100000001</v>
       </c>
       <c r="O10">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="P10">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="Q10">
-        <v>120.5629067209638</v>
+        <v>137.0481770890354</v>
       </c>
       <c r="R10">
-        <v>1085.066160488674</v>
+        <v>1233.433593801318</v>
       </c>
       <c r="S10">
-        <v>0.02428649006497682</v>
+        <v>0.04178254823205144</v>
       </c>
       <c r="T10">
-        <v>0.02428649006497682</v>
+        <v>0.04178254823205144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.254459333333333</v>
+        <v>7.254459333333334</v>
       </c>
       <c r="H11">
         <v>21.763378</v>
       </c>
       <c r="I11">
-        <v>0.1435736519118159</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="J11">
-        <v>0.143573651911816</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.001810333333333333</v>
+        <v>0.01396866666666667</v>
       </c>
       <c r="N11">
-        <v>0.005431</v>
+        <v>0.041906</v>
       </c>
       <c r="O11">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="P11">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="Q11">
-        <v>0.01313298954644444</v>
+        <v>0.1013351242742222</v>
       </c>
       <c r="R11">
-        <v>0.118196905918</v>
+        <v>0.9120161184680001</v>
       </c>
       <c r="S11">
-        <v>2.645541890271187E-06</v>
+        <v>3.089453510087851E-05</v>
       </c>
       <c r="T11">
-        <v>2.645541890271189E-06</v>
+        <v>3.089453510087851E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.254459333333333</v>
+        <v>7.254459333333334</v>
       </c>
       <c r="H12">
         <v>21.763378</v>
       </c>
       <c r="I12">
-        <v>0.1435736519118159</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="J12">
-        <v>0.143573651911816</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.62995566666667</v>
+        <v>81.50486266666667</v>
       </c>
       <c r="N12">
-        <v>181.889867</v>
+        <v>244.514588</v>
       </c>
       <c r="O12">
-        <v>0.6171185457670396</v>
+        <v>0.7542226514793733</v>
       </c>
       <c r="P12">
-        <v>0.6171185457670397</v>
+        <v>0.7542226514793734</v>
       </c>
       <c r="Q12">
-        <v>439.8375477656362</v>
+        <v>591.2737116842516</v>
       </c>
       <c r="R12">
-        <v>3958.537929890726</v>
+        <v>5321.463405158265</v>
       </c>
       <c r="S12">
-        <v>0.08860196327828299</v>
+        <v>0.1802645091787058</v>
       </c>
       <c r="T12">
-        <v>0.08860196327828303</v>
+        <v>0.1802645091787059</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.254459333333333</v>
+        <v>7.254459333333334</v>
       </c>
       <c r="H13">
         <v>21.763378</v>
       </c>
       <c r="I13">
-        <v>0.1435736519118159</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="J13">
-        <v>0.143573651911816</v>
+        <v>0.2390070211032846</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.98681533333333</v>
+        <v>7.522875666666667</v>
       </c>
       <c r="N13">
-        <v>62.960446</v>
+        <v>22.568627</v>
       </c>
       <c r="O13">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="P13">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="Q13">
-        <v>152.2479983718431</v>
+        <v>54.57439559355623</v>
       </c>
       <c r="R13">
-        <v>1370.231985346588</v>
+        <v>491.169560342006</v>
       </c>
       <c r="S13">
-        <v>0.03066921327990371</v>
+        <v>0.01663836297976744</v>
       </c>
       <c r="T13">
-        <v>0.03066921327990371</v>
+        <v>0.01663836297976744</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05853</v>
+        <v>14.75020933333334</v>
       </c>
       <c r="H14">
-        <v>0.17559</v>
+        <v>44.25062800000001</v>
       </c>
       <c r="I14">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="J14">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.004819666666666667</v>
+        <v>0.1271313333333333</v>
       </c>
       <c r="N14">
-        <v>0.014459</v>
+        <v>0.381394</v>
       </c>
       <c r="O14">
-        <v>4.905670228042789E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="P14">
-        <v>4.90567022804279E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="Q14">
-        <v>0.00028209509</v>
+        <v>1.875213779492445</v>
       </c>
       <c r="R14">
-        <v>0.00253885581</v>
+        <v>16.876924015432</v>
       </c>
       <c r="S14">
-        <v>5.682593251106855E-08</v>
+        <v>0.000571705599091249</v>
       </c>
       <c r="T14">
-        <v>5.682593251106857E-08</v>
+        <v>0.000571705599091249</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05853</v>
+        <v>14.75020933333334</v>
       </c>
       <c r="H15">
-        <v>0.17559</v>
+        <v>44.25062800000001</v>
       </c>
       <c r="I15">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="J15">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.012926</v>
       </c>
       <c r="O15">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="P15">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="Q15">
-        <v>0.00025218626</v>
+        <v>0.0635537352808889</v>
       </c>
       <c r="R15">
-        <v>0.002269676339999999</v>
+        <v>0.5719836175280001</v>
       </c>
       <c r="S15">
-        <v>5.080102383553994E-08</v>
+        <v>1.937593820000704E-05</v>
       </c>
       <c r="T15">
-        <v>5.080102383553995E-08</v>
+        <v>1.937593820000704E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05853</v>
+        <v>14.75020933333334</v>
       </c>
       <c r="H16">
-        <v>0.17559</v>
+        <v>44.25062800000001</v>
       </c>
       <c r="I16">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="J16">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.61914433333333</v>
+        <v>18.891577</v>
       </c>
       <c r="N16">
-        <v>49.857433</v>
+        <v>56.67473100000001</v>
       </c>
       <c r="O16">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="P16">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="Q16">
-        <v>0.9727185178300001</v>
+        <v>278.6547153867854</v>
       </c>
       <c r="R16">
-        <v>8.754466660469999</v>
+        <v>2507.892438481069</v>
       </c>
       <c r="S16">
-        <v>0.0001959468236277144</v>
+        <v>0.0849548263467448</v>
       </c>
       <c r="T16">
-        <v>0.0001959468236277144</v>
+        <v>0.08495482634674481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05853</v>
+        <v>14.75020933333334</v>
       </c>
       <c r="H17">
-        <v>0.17559</v>
+        <v>44.25062800000001</v>
       </c>
       <c r="I17">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="J17">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.001810333333333333</v>
+        <v>0.01396866666666667</v>
       </c>
       <c r="N17">
-        <v>0.005431</v>
+        <v>0.041906</v>
       </c>
       <c r="O17">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="P17">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="Q17">
-        <v>0.00010595881</v>
+        <v>0.2060407574408889</v>
       </c>
       <c r="R17">
-        <v>0.00095362929</v>
+        <v>1.854366816968</v>
       </c>
       <c r="S17">
-        <v>2.134460470762939E-08</v>
+        <v>6.281665373738937E-05</v>
       </c>
       <c r="T17">
-        <v>2.134460470762939E-08</v>
+        <v>6.281665373738937E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05853</v>
+        <v>14.75020933333334</v>
       </c>
       <c r="H18">
-        <v>0.17559</v>
+        <v>44.25062800000001</v>
       </c>
       <c r="I18">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="J18">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>60.62995566666667</v>
+        <v>81.50486266666667</v>
       </c>
       <c r="N18">
-        <v>181.889867</v>
+        <v>244.514588</v>
       </c>
       <c r="O18">
-        <v>0.6171185457670396</v>
+        <v>0.7542226514793733</v>
       </c>
       <c r="P18">
-        <v>0.6171185457670397</v>
+        <v>0.7542226514793734</v>
       </c>
       <c r="Q18">
-        <v>3.54867130517</v>
+        <v>1202.213786017918</v>
       </c>
       <c r="R18">
-        <v>31.93804174653</v>
+        <v>10819.92407416126</v>
       </c>
       <c r="S18">
-        <v>0.0007148531230783065</v>
+        <v>0.3665247985523892</v>
       </c>
       <c r="T18">
-        <v>0.0007148531230783069</v>
+        <v>0.3665247985523892</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05853</v>
+        <v>14.75020933333334</v>
       </c>
       <c r="H19">
-        <v>0.17559</v>
+        <v>44.25062800000001</v>
       </c>
       <c r="I19">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="J19">
-        <v>0.001158372452070435</v>
+        <v>0.4859636578581504</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.98681533333333</v>
+        <v>7.522875666666667</v>
       </c>
       <c r="N19">
-        <v>62.960446</v>
+        <v>22.568627</v>
       </c>
       <c r="O19">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="P19">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="Q19">
-        <v>1.22835830146</v>
+        <v>110.9639908719729</v>
       </c>
       <c r="R19">
-        <v>11.05522471314</v>
+        <v>998.6759178477561</v>
       </c>
       <c r="S19">
-        <v>0.0002474435338033596</v>
+        <v>0.0338301347679878</v>
       </c>
       <c r="T19">
-        <v>0.0002474435338033596</v>
+        <v>0.0338301347679878</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>38.17751133333334</v>
+        <v>0.5745326666666667</v>
       </c>
       <c r="H20">
-        <v>114.532534</v>
+        <v>1.723598</v>
       </c>
       <c r="I20">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="J20">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.004819666666666667</v>
+        <v>0.1271313333333333</v>
       </c>
       <c r="N20">
-        <v>0.014459</v>
+        <v>0.381394</v>
       </c>
       <c r="O20">
-        <v>4.905670228042789E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="P20">
-        <v>4.90567022804279E-05</v>
+        <v>0.00117643694100707</v>
       </c>
       <c r="Q20">
-        <v>0.1840028787895556</v>
+        <v>0.0730411039568889</v>
       </c>
       <c r="R20">
-        <v>1.656025909106</v>
+        <v>0.6573699356120001</v>
       </c>
       <c r="S20">
-        <v>3.706599491659927E-05</v>
+        <v>2.226839870345972E-05</v>
       </c>
       <c r="T20">
-        <v>3.706599491659927E-05</v>
+        <v>2.226839870345972E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>38.17751133333334</v>
+        <v>0.5745326666666667</v>
       </c>
       <c r="H21">
-        <v>114.532534</v>
+        <v>1.723598</v>
       </c>
       <c r="I21">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="J21">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.012926</v>
       </c>
       <c r="O21">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="P21">
-        <v>4.385551792494715E-05</v>
+        <v>3.987116708563163E-05</v>
       </c>
       <c r="Q21">
-        <v>0.1644941704982222</v>
+        <v>0.002475469749777778</v>
       </c>
       <c r="R21">
-        <v>1.480447534484</v>
+        <v>0.022279227748</v>
       </c>
       <c r="S21">
-        <v>3.313611247610223E-05</v>
+        <v>7.547085733937092E-07</v>
       </c>
       <c r="T21">
-        <v>3.313611247610223E-05</v>
+        <v>7.547085733937094E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>38.17751133333334</v>
+        <v>0.5745326666666667</v>
       </c>
       <c r="H22">
-        <v>114.532534</v>
+        <v>1.723598</v>
       </c>
       <c r="I22">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="J22">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.61914433333333</v>
+        <v>18.891577</v>
       </c>
       <c r="N22">
-        <v>49.857433</v>
+        <v>56.67473100000001</v>
       </c>
       <c r="O22">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="P22">
-        <v>0.169157012735831</v>
+        <v>0.1748172419336397</v>
       </c>
       <c r="Q22">
-        <v>634.4775711361359</v>
+        <v>10.85382811134867</v>
       </c>
       <c r="R22">
-        <v>5710.298140225222</v>
+        <v>97.68445300213803</v>
       </c>
       <c r="S22">
-        <v>0.1278107309034296</v>
+        <v>0.003309059676658072</v>
       </c>
       <c r="T22">
-        <v>0.1278107309034296</v>
+        <v>0.003309059676658073</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>38.17751133333334</v>
+        <v>0.5745326666666667</v>
       </c>
       <c r="H23">
-        <v>114.532534</v>
+        <v>1.723598</v>
       </c>
       <c r="I23">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="J23">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.001810333333333333</v>
+        <v>0.01396866666666667</v>
       </c>
       <c r="N23">
-        <v>0.005431</v>
+        <v>0.041906</v>
       </c>
       <c r="O23">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="P23">
-        <v>1.842637458226737E-05</v>
+        <v>0.0001292620399110691</v>
       </c>
       <c r="Q23">
-        <v>0.06911402135044445</v>
+        <v>0.008025455309777777</v>
       </c>
       <c r="R23">
-        <v>0.622026192154</v>
+        <v>0.072229097788</v>
       </c>
       <c r="S23">
-        <v>1.392249937008442E-05</v>
+        <v>2.446759823351136E-06</v>
       </c>
       <c r="T23">
-        <v>1.392249937008442E-05</v>
+        <v>2.446759823351136E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>38.17751133333334</v>
+        <v>0.5745326666666667</v>
       </c>
       <c r="H24">
-        <v>114.532534</v>
+        <v>1.723598</v>
       </c>
       <c r="I24">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="J24">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>60.62995566666667</v>
+        <v>81.50486266666667</v>
       </c>
       <c r="N24">
-        <v>181.889867</v>
+        <v>244.514588</v>
       </c>
       <c r="O24">
-        <v>0.6171185457670396</v>
+        <v>0.7542226514793733</v>
       </c>
       <c r="P24">
-        <v>0.6171185457670397</v>
+        <v>0.7542226514793734</v>
       </c>
       <c r="Q24">
-        <v>2314.700819603665</v>
+        <v>46.82720609418045</v>
       </c>
       <c r="R24">
-        <v>20832.30737643298</v>
+        <v>421.4448548476241</v>
       </c>
       <c r="S24">
-        <v>0.4662790570304251</v>
+        <v>0.01427643941539769</v>
       </c>
       <c r="T24">
-        <v>0.4662790570304252</v>
+        <v>0.0142764394153977</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>38.17751133333334</v>
+        <v>0.5745326666666667</v>
       </c>
       <c r="H25">
-        <v>114.532534</v>
+        <v>1.723598</v>
       </c>
       <c r="I25">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="J25">
-        <v>0.7555745330111081</v>
+        <v>0.01892868026092177</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.98681533333333</v>
+        <v>7.522875666666667</v>
       </c>
       <c r="N25">
-        <v>62.960446</v>
+        <v>22.568627</v>
       </c>
       <c r="O25">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="P25">
-        <v>0.2136131029023416</v>
+        <v>0.06961453643898324</v>
       </c>
       <c r="Q25">
-        <v>801.2243802389071</v>
+        <v>4.322137817771778</v>
       </c>
       <c r="R25">
-        <v>7211.019422150163</v>
+        <v>38.89924035994601</v>
       </c>
       <c r="S25">
-        <v>0.1614006204704905</v>
+        <v>0.001317711301765801</v>
       </c>
       <c r="T25">
-        <v>0.1614006204704905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.4974426666666667</v>
-      </c>
-      <c r="H26">
-        <v>1.492328</v>
-      </c>
-      <c r="I26">
-        <v>0.009844932198037292</v>
-      </c>
-      <c r="J26">
-        <v>0.009844932198037294</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.004819666666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.014459</v>
-      </c>
-      <c r="O26">
-        <v>4.905670228042789E-05</v>
-      </c>
-      <c r="P26">
-        <v>4.90567022804279E-05</v>
-      </c>
-      <c r="Q26">
-        <v>0.002397507839111111</v>
-      </c>
-      <c r="R26">
-        <v>0.021577570552</v>
-      </c>
-      <c r="S26">
-        <v>4.82959907810114E-07</v>
-      </c>
-      <c r="T26">
-        <v>4.829599078101141E-07</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.4974426666666667</v>
-      </c>
-      <c r="H27">
-        <v>1.492328</v>
-      </c>
-      <c r="I27">
-        <v>0.009844932198037292</v>
-      </c>
-      <c r="J27">
-        <v>0.009844932198037294</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M27">
-        <v>0.004308666666666666</v>
-      </c>
-      <c r="N27">
-        <v>0.012926</v>
-      </c>
-      <c r="O27">
-        <v>4.385551792494715E-05</v>
-      </c>
-      <c r="P27">
-        <v>4.385551792494715E-05</v>
-      </c>
-      <c r="Q27">
-        <v>0.002143314636444444</v>
-      </c>
-      <c r="R27">
-        <v>0.019289831728</v>
-      </c>
-      <c r="S27">
-        <v>4.317546004809138E-07</v>
-      </c>
-      <c r="T27">
-        <v>4.317546004809139E-07</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.4974426666666667</v>
-      </c>
-      <c r="H28">
-        <v>1.492328</v>
-      </c>
-      <c r="I28">
-        <v>0.009844932198037292</v>
-      </c>
-      <c r="J28">
-        <v>0.009844932198037294</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>16.61914433333333</v>
-      </c>
-      <c r="N28">
-        <v>49.857433</v>
-      </c>
-      <c r="O28">
-        <v>0.169157012735831</v>
-      </c>
-      <c r="P28">
-        <v>0.169157012735831</v>
-      </c>
-      <c r="Q28">
-        <v>8.267071474891557</v>
-      </c>
-      <c r="R28">
-        <v>74.40364327402401</v>
-      </c>
-      <c r="S28">
-        <v>0.001665339321206787</v>
-      </c>
-      <c r="T28">
-        <v>0.001665339321206788</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.4974426666666667</v>
-      </c>
-      <c r="H29">
-        <v>1.492328</v>
-      </c>
-      <c r="I29">
-        <v>0.009844932198037292</v>
-      </c>
-      <c r="J29">
-        <v>0.009844932198037294</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.001810333333333333</v>
-      </c>
-      <c r="N29">
-        <v>0.005431</v>
-      </c>
-      <c r="O29">
-        <v>1.842637458226737E-05</v>
-      </c>
-      <c r="P29">
-        <v>1.842637458226737E-05</v>
-      </c>
-      <c r="Q29">
-        <v>0.0009005370408888889</v>
-      </c>
-      <c r="R29">
-        <v>0.008104833368000001</v>
-      </c>
-      <c r="S29">
-        <v>1.8140640841806E-07</v>
-      </c>
-      <c r="T29">
-        <v>1.8140640841806E-07</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.4974426666666667</v>
-      </c>
-      <c r="H30">
-        <v>1.492328</v>
-      </c>
-      <c r="I30">
-        <v>0.009844932198037292</v>
-      </c>
-      <c r="J30">
-        <v>0.009844932198037294</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>60.62995566666667</v>
-      </c>
-      <c r="N30">
-        <v>181.889867</v>
-      </c>
-      <c r="O30">
-        <v>0.6171185457670396</v>
-      </c>
-      <c r="P30">
-        <v>0.6171185457670397</v>
-      </c>
-      <c r="Q30">
-        <v>30.15992682670845</v>
-      </c>
-      <c r="R30">
-        <v>271.439341440376</v>
-      </c>
-      <c r="S30">
-        <v>0.006075490241227878</v>
-      </c>
-      <c r="T30">
-        <v>0.006075490241227881</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.4974426666666667</v>
-      </c>
-      <c r="H31">
-        <v>1.492328</v>
-      </c>
-      <c r="I31">
-        <v>0.009844932198037292</v>
-      </c>
-      <c r="J31">
-        <v>0.009844932198037294</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>20.98681533333333</v>
-      </c>
-      <c r="N31">
-        <v>62.960446</v>
-      </c>
-      <c r="O31">
-        <v>0.2136131029023416</v>
-      </c>
-      <c r="P31">
-        <v>0.2136131029023416</v>
-      </c>
-      <c r="Q31">
-        <v>10.43973738425422</v>
-      </c>
-      <c r="R31">
-        <v>93.95763645828801</v>
-      </c>
-      <c r="S31">
-        <v>0.002103006514685916</v>
-      </c>
-      <c r="T31">
-        <v>0.002103006514685916</v>
+        <v>0.001317711301765802</v>
       </c>
     </row>
   </sheetData>
